--- a/polotovary.xlsx
+++ b/polotovary.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Prehled" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Detaily" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Polotovary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -19,8 +18,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD"/>
-    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -60,17 +59,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -436,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -480,9 +474,14 @@
           <t>vyrobeno</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>polotovar_nazev</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="B2" t="n">
@@ -505,11 +504,16 @@
         <v>160</v>
       </c>
       <c r="G2" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Droewors Hovězí Piri Piri FG</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="B3" t="n">
@@ -532,11 +536,16 @@
         <v>320</v>
       </c>
       <c r="G3" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Droewors Hovězí Piri Piri FG</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="B4" t="n">
@@ -559,11 +568,16 @@
         <v>110</v>
       </c>
       <c r="G4" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B5" t="n">
@@ -586,11 +600,16 @@
         <v>100</v>
       </c>
       <c r="G5" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B6" t="n">
@@ -615,9 +634,14 @@
       <c r="G6" t="b">
         <v>0</v>
       </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Droewors Hovězí Piri Piri FG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="B7" t="n">
@@ -640,7 +664,12 @@
         <v>10</v>
       </c>
       <c r="G7" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -700,7 +729,7 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="n">
+      <c r="A2" s="2" t="n">
         <v>45889</v>
       </c>
       <c r="B2" t="n">
@@ -727,7 +756,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="n">
+      <c r="A3" s="2" t="n">
         <v>45890</v>
       </c>
       <c r="B3" t="n">
@@ -754,7 +783,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="n">
+      <c r="A4" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="B4" t="n">
@@ -781,7 +810,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="n">
+      <c r="A5" s="2" t="n">
         <v>45892</v>
       </c>
       <c r="B5" t="n">
@@ -808,7 +837,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="n">
+      <c r="A6" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B6" t="n">
@@ -835,7 +864,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B7" t="n">
@@ -862,7 +891,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="n">
+      <c r="A8" s="2" t="n">
         <v>45897</v>
       </c>
       <c r="B8" t="n">
@@ -889,7 +918,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="n">
+      <c r="A9" s="2" t="n">
         <v>45899</v>
       </c>
       <c r="B9" t="n">
@@ -914,425 +943,6 @@
           <t>kg</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="12" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="42" customWidth="1" min="4" max="4"/>
-    <col width="12" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
-    <col width="10" customWidth="1" min="7" max="7"/>
-    <col width="24" customWidth="1" min="8" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="4" t="inlineStr">
-        <is>
-          <t>Datum</t>
-        </is>
-      </c>
-      <c r="B1" s="4" t="inlineStr">
-        <is>
-          <t>SK</t>
-        </is>
-      </c>
-      <c r="C1" s="4" t="inlineStr">
-        <is>
-          <t>Reg.č.</t>
-        </is>
-      </c>
-      <c r="D1" s="4" t="inlineStr">
-        <is>
-          <t>Polotovar</t>
-        </is>
-      </c>
-      <c r="E1" s="4" t="inlineStr">
-        <is>
-          <t>Množství</t>
-        </is>
-      </c>
-      <c r="F1" s="4" t="inlineStr"/>
-      <c r="G1" s="4" t="inlineStr">
-        <is>
-          <t>Vyrobeno</t>
-        </is>
-      </c>
-      <c r="H1" s="4" t="inlineStr">
-        <is>
-          <t>Poznámka</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="5" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B2" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" t="n">
-        <v>407</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>160</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="3" outlineLevel="1">
-      <c r="A3" t="inlineStr"/>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>160</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="5" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>407</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>320</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" outlineLevel="1">
-      <c r="A5" t="inlineStr"/>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>320</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="5" t="n">
-        <v>45892</v>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" t="n">
-        <v>30</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>110</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="7" outlineLevel="1">
-      <c r="A7" t="inlineStr"/>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
-    </row>
-    <row r="8" outlineLevel="1">
-      <c r="A8" t="inlineStr"/>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>10</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
-      <c r="H8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="5" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B9" t="n">
-        <v>300</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>100</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G9" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="10" outlineLevel="1">
-      <c r="A10" t="inlineStr"/>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>100</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="5" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B11" t="n">
-        <v>300</v>
-      </c>
-      <c r="C11" t="n">
-        <v>407</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>480</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" outlineLevel="1">
-      <c r="A12" t="inlineStr"/>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>160</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
-      <c r="H12" t="inlineStr"/>
-    </row>
-    <row r="13" outlineLevel="1">
-      <c r="A13" t="inlineStr"/>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>320</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="5" t="n">
-        <v>45899</v>
-      </c>
-      <c r="B14" t="n">
-        <v>300</v>
-      </c>
-      <c r="C14" t="n">
-        <v>30</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>10</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G14" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>(obsahuje rozpad)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15" outlineLevel="1">
-      <c r="A15" t="inlineStr"/>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">↳ </t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>10</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
-      <c r="H15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/polotovary.xlsx
+++ b/polotovary.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Prehled" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Detaily" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Polotovary" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,10 +18,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -64,7 +62,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -430,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,234 +439,37 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>polotovar_sk</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>polotovar_rc</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>nazev</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>potreba</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>jednotka</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>vyrobeno</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>datum</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>polotovar_sk</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>polotovar_rc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>nazev</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>jednotka</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>potreba</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>vyrobeno</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>polotovar_nazev</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B2" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" t="n">
-        <v>407</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>160</v>
-      </c>
-      <c r="G2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C3" t="n">
-        <v>407</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>320</v>
-      </c>
-      <c r="G3" t="b">
-        <v>1</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>110</v>
-      </c>
-      <c r="G4" t="b">
-        <v>1</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B5" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>100</v>
-      </c>
-      <c r="G5" t="b">
-        <v>1</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" t="n">
-        <v>407</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>480</v>
-      </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Droewors Hovězí Piri Piri FG</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="B7" t="n">
-        <v>300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-      <c r="G7" t="b">
-        <v>1</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Jerky Hovězí Cracked Pepper - 6 mm</t>
         </is>
       </c>
     </row>
@@ -683,7 +484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -709,238 +510,94 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>final_rc</t>
+          <t>vyrobek_sk</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>final_nazev</t>
+          <t>vyrobek_rc</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>vyrobek_nazev</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>mnozstvi</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>jednotka</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45889</v>
-      </c>
-      <c r="B2" t="n">
-        <v>300</v>
-      </c>
-      <c r="C2" t="n">
-        <v>407</v>
-      </c>
-      <c r="D2" t="n">
-        <v>394</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Hovězí Droewors Piri Piri - 40g</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>160</v>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45890</v>
-      </c>
-      <c r="B3" t="n">
-        <v>300</v>
-      </c>
-      <c r="C3" t="n">
-        <v>407</v>
-      </c>
-      <c r="D3" t="n">
-        <v>394</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Hovězí Droewors Piri Piri - 40g</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>320</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="B4" t="n">
-        <v>300</v>
-      </c>
-      <c r="C4" t="n">
-        <v>30</v>
-      </c>
-      <c r="D4" t="n">
-        <v>100</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Grizzly Foods Jerky Hovězí Cracked Pepper - 1000g</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>45892</v>
-      </c>
-      <c r="B5" t="n">
-        <v>300</v>
-      </c>
-      <c r="C5" t="n">
-        <v>30</v>
-      </c>
-      <c r="D5" t="n">
-        <v>102</v>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Grizzly Foods Jerky Hovězí Cracked Pepper - 50g</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B6" t="n">
-        <v>300</v>
-      </c>
-      <c r="C6" t="n">
-        <v>407</v>
-      </c>
-      <c r="D6" t="n">
-        <v>394</v>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Hovězí Droewors Piri Piri - 40g</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>160</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B7" t="n">
-        <v>300</v>
-      </c>
-      <c r="C7" t="n">
-        <v>407</v>
-      </c>
-      <c r="D7" t="n">
-        <v>394</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Hovězí Droewors Piri Piri - 40g</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>320</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>45897</v>
-      </c>
-      <c r="B8" t="n">
-        <v>300</v>
-      </c>
-      <c r="C8" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Grizzly Foods Jerky Hovězí Cracked Pepper - 1000g</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>100</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>kg</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>45899</v>
-      </c>
-      <c r="B9" t="n">
-        <v>300</v>
-      </c>
-      <c r="C9" t="n">
-        <v>30</v>
-      </c>
-      <c r="D9" t="n">
-        <v>102</v>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Grizzly Foods Jerky Hovězí Cracked Pepper - 50g</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>kg</t>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="10" customWidth="1" min="3" max="3"/>
+    <col width="40" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="5" max="5"/>
+    <col width="3" customWidth="1" min="6" max="6"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="30" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Datum</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>SK</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Reg.č.</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Polotovar</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>Množství</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr"/>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>Vyrobeno</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>Poznámka</t>
         </is>
       </c>
     </row>

--- a/polotovary.xlsx
+++ b/polotovary.xlsx
@@ -506,7 +506,7 @@
         <v>14</v>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -537,7 +537,7 @@
         <v>14</v>
       </c>
       <c r="G3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -568,7 +568,7 @@
         <v>369.6</v>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -599,7 +599,7 @@
         <v>378</v>
       </c>
       <c r="G5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -630,7 +630,7 @@
         <v>304.6</v>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -661,7 +661,7 @@
         <v>10.5</v>
       </c>
       <c r="G7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -692,7 +692,7 @@
         <v>20</v>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -723,7 +723,7 @@
         <v>141.48</v>
       </c>
       <c r="G9" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -754,7 +754,7 @@
         <v>15</v>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -785,7 +785,7 @@
         <v>600.125</v>
       </c>
       <c r="G11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -816,7 +816,7 @@
         <v>55.4</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -847,7 +847,7 @@
         <v>109.45</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -878,7 +878,7 @@
         <v>50</v>
       </c>
       <c r="G14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -909,7 +909,7 @@
         <v>413.2500000000001</v>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +940,7 @@
         <v>178.8</v>
       </c>
       <c r="G16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -7479,7 +7479,7 @@
         </is>
       </c>
       <c r="G2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
@@ -7537,7 +7537,7 @@
         </is>
       </c>
       <c r="G4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -7595,7 +7595,7 @@
         </is>
       </c>
       <c r="G6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -7653,7 +7653,7 @@
         </is>
       </c>
       <c r="G8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="G10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
@@ -7769,7 +7769,7 @@
         </is>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         </is>
       </c>
       <c r="G15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -7907,7 +7907,7 @@
         </is>
       </c>
       <c r="G17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
@@ -7965,7 +7965,7 @@
         </is>
       </c>
       <c r="G19" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
@@ -8023,7 +8023,7 @@
         </is>
       </c>
       <c r="G21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
@@ -8081,7 +8081,7 @@
         </is>
       </c>
       <c r="G23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         </is>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
@@ -8219,7 +8219,7 @@
         </is>
       </c>
       <c r="G28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
@@ -8277,7 +8277,7 @@
         </is>
       </c>
       <c r="G30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
@@ -8379,7 +8379,7 @@
         </is>
       </c>
       <c r="G34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
